--- a/output.xlsx
+++ b/output.xlsx
@@ -581,7 +581,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="b">
@@ -592,28 +592,28 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">xyz </t>
+          <t>xyz</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45084.60694444444</v>
+        <v>45044.58541666667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -644,11 +644,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>09978130-2cfe-4bc5-a2f7-9afb39d4cba4</t>
+          <t>30ab80e3-2328-4fff-80ba-672746539b61</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -667,7 +667,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>f04f494a-caad-46d4-8e07-d69ba944c3ef</t>
+          <t>a953e237-a4a1-4c9a-bf94-684779272480</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,10 +578,20 @@
           <t>perm_id</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>close_clearance</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>close_clearance_reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="b">
@@ -592,7 +602,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>xyz</t>
+          <t>brown company</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -613,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>45044.58541666667</v>
+        <v>44991.58541666667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -648,13 +658,13 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>30ab80e3-2328-4fff-80ba-672746539b61</t>
+          <t>6545a2af-1636-4482-88a6-7047ac7f8ada</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>laptop, mobile</t>
+          <t>laptop, mobile , java</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
@@ -667,9 +677,13 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>a953e237-a4a1-4c9a-bf94-684779272480</t>
-        </is>
-      </c>
+          <t>0a79847e-c647-44db-996f-cf28c1612f86</t>
+        </is>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
